--- a/Ternimal sets.xlsx
+++ b/Ternimal sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH for Matrix Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B2A8D2-2242-4DC4-BEFB-AEA0C31E31A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB49490D-6E84-4CF2-B764-FCD2FFAA163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38535" yWindow="0" windowWidth="13065" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26235" yWindow="1725" windowWidth="23025" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Terminal</t>
   </si>
@@ -42,122 +42,255 @@
     <t>WIQ</t>
   </si>
   <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Processing time of an operation on a given machine</t>
+  </si>
+  <si>
+    <t>NPT</t>
+  </si>
+  <si>
+    <t>Processing time for the next operation on machine options</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Weight of a job</t>
+  </si>
+  <si>
+    <t>WINQ</t>
+  </si>
+  <si>
+    <t>Work in next queue</t>
+  </si>
+  <si>
+    <t>rJ</t>
+  </si>
+  <si>
+    <t>Job release time (arrival time)</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Due date of the job</t>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>Time in system</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Random number from 0 to 1</t>
+  </si>
+  <si>
+    <t>已添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of operations remaining in a job</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Work in a machine’s queue</t>
-  </si>
-  <si>
-    <t>MWT</t>
-  </si>
-  <si>
-    <t>Waiting time of a machine</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>Processing time of an operation on a given machine</t>
-  </si>
-  <si>
-    <t>NPT</t>
-  </si>
-  <si>
-    <t>Processing time for the next operation on machine options</t>
-  </si>
-  <si>
-    <t>OWT</t>
-  </si>
-  <si>
-    <t>Waiting time of an operation</t>
-  </si>
-  <si>
-    <t>WKR</t>
-  </si>
-  <si>
-    <t>Median amount of work remaining for a job</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>Number of operations remaining in a job</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Weight of a job</t>
-  </si>
-  <si>
-    <t>WINQ</t>
-  </si>
-  <si>
-    <t>Work in next queue</t>
-  </si>
-  <si>
-    <t>RPTime</t>
-  </si>
-  <si>
-    <t>Sum of all operations processing times left</t>
-  </si>
-  <si>
-    <t>OpsLeft</t>
-  </si>
-  <si>
-    <t>Number of all unfinished operations</t>
-  </si>
-  <si>
-    <t>rJ</t>
-  </si>
-  <si>
-    <t>Job release time (arrival time)</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>Number of remaining operations within the job</t>
-  </si>
-  <si>
-    <t>RT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>station中当前作业数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>注释</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中下道序的消耗时间</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中本道序的消耗时间</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前剩余工序数量</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>job权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>station</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中所有作业完成所需时间</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>station</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中所有作业完成所需时间</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中剩余序的总消耗时间</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释放时间</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Work remaining of the job</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>Due date of the job</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>Slack of the job = DD − (t + RT)</t>
-  </si>
-  <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>Current waiting time of the job = max</t>
-  </si>
-  <si>
-    <t>TIS</t>
-  </si>
-  <si>
-    <t>Time in system</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Random number from 0 to 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交货期</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +318,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +425,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,184 +712,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Ternimal sets.xlsx
+++ b/Ternimal sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH for Matrix Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB49490D-6E84-4CF2-B764-FCD2FFAA163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93835C87-56F3-4F05-9A81-9E980E2F770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26235" yWindow="1725" windowWidth="23025" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22605" yWindow="1725" windowWidth="23025" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Terminal</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>Weight of a job</t>
-  </si>
-  <si>
-    <t>WINQ</t>
-  </si>
-  <si>
-    <t>Work in next queue</t>
   </si>
   <si>
     <t>rJ</t>
@@ -191,38 +185,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>station</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中所有作业完成所需时间</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>job</t>
     </r>
     <r>
@@ -290,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,13 +294,6 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -412,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,9 +382,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -750,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -758,13 +710,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -778,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -792,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -800,11 +752,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -816,7 +770,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -826,35 +780,39 @@
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -867,8 +825,8 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -882,21 +840,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
